--- a/target/classes/ExcelData.xlsx
+++ b/target/classes/ExcelData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14235" windowHeight="3375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AJIO" sheetId="2" r:id="rId2"/>
+    <sheet name="MAKEMYTRIP" sheetId="3" r:id="rId3"/>
+    <sheet name="AUTOMATE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Location</t>
   </si>
@@ -28,16 +30,135 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>BRAND NAME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>Aawiclo Home</t>
+  </si>
+  <si>
+    <t>Aapno Rajasthan</t>
+  </si>
+  <si>
+    <t>A Homes Grace</t>
+  </si>
+  <si>
+    <t>BANGALORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>HOBBIES</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SKILLS</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>XYZ@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>RITESH</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>NEW DELHI</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>1234567895</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C:\\Users\\User\\Pictures\\Camera Roll</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,14 +180,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -397,24 +540,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>